--- a/projects/Excel/gdp-per-capital-restructered.xlsx
+++ b/projects/Excel/gdp-per-capital-restructered.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="934" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="934" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId3"/>
+    <sheet name="Fund Transfer By Region Count" sheetId="10" r:id="rId3"/>
     <sheet name="Region Per Capital Income" sheetId="9" r:id="rId4"/>
     <sheet name="Bank Capital" sheetId="8" r:id="rId5"/>
     <sheet name="Country Max Capital Income" sheetId="6" r:id="rId6"/>
@@ -18,10 +18,10 @@
     <sheet name="Data Trend" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Country_Territory">#N/A</definedName>
+    <definedName name="Slicer_Bank">#N/A</definedName>
     <definedName name="Slicer_Year">#N/A</definedName>
-    <definedName name="Slicer_Bank">#N/A</definedName>
     <definedName name="Slicer_UN_Region">#N/A</definedName>
-    <definedName name="Slicer_Country_Territory">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -31,14 +31,14 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId13"/>
         <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
       </x15:slicerCaches>
     </ext>
   </extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="248">
   <si>
     <t>Column1</t>
   </si>
@@ -777,6 +777,9 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>(ALL)</t>
+  </si>
+  <si>
     <t>Sum of Year</t>
   </si>
   <si>
@@ -788,9 +791,6 @@
   <si>
     <t>(Multiple Items)</t>
   </si>
-  <si>
-    <t>(ALL)</t>
-  </si>
 </sst>
 </file>
 
@@ -799,8 +799,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -827,14 +827,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,9 +855,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,6 +871,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -872,11 +901,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,6 +919,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -913,7 +956,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,50 +964,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,7 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,19 +1009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,13 +1045,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,25 +1087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,19 +1117,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,37 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,6 +1176,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1190,6 +1199,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,15 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1229,6 +1238,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,41 +1276,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,130 +1299,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1631,34 +1631,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Monaco</c:v>
+                  <c:v>Luxembourg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Luxembourg</c:v>
+                  <c:v>Ireland</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Liechtenstein</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ireland</c:v>
+                  <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Switzerland</c:v>
+                  <c:v>Singapore</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Norway</c:v>
+                  <c:v>Qatar</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Singapore</c:v>
+                  <c:v>United States</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bermuda</c:v>
+                  <c:v>Iceland</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>United States</c:v>
+                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Qatar</c:v>
+                  <c:v>Australia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1670,34 +1670,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>468633</c:v>
+                  <c:v>132372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>399707</c:v>
+                  <c:v>114581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>327015</c:v>
+                  <c:v>101103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>315862</c:v>
+                  <c:v>98767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>284284</c:v>
+                  <c:v>91100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>279499</c:v>
+                  <c:v>83891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>230716</c:v>
+                  <c:v>80034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>226743</c:v>
+                  <c:v>75180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219468</c:v>
+                  <c:v>68827</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>217528</c:v>
+                  <c:v>64964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,41 +1962,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Data Trend'!$A$4:$A$15</c:f>
+              <c:f>'Data Trend'!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2007</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
@@ -2004,41 +1983,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Trend'!$B$4:$B$15</c:f>
+              <c:f>'Data Trend'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>105988</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75153</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1267</c:v>
+                  <c:v>5020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126718</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>657931</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7120541</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5020</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>3414194</c:v>
                 </c:pt>
               </c:numCache>
@@ -2312,34 +2270,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>North Korea</c:v>
+                  <c:v>Burundi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Burundi</c:v>
+                  <c:v>Sierra Leone</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zanzibar</c:v>
+                  <c:v>South Sudan</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Afghanistan</c:v>
+                  <c:v>Malawi</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sierra Leone</c:v>
+                  <c:v>Central African Republic</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Madagascar</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Somalia</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Central African Republic</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Syria</c:v>
+                  <c:v>Yemen</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Madagascar</c:v>
+                  <c:v>Mozambique</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mozambique</c:v>
+                  <c:v>Afghanistan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2351,34 +2309,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>654</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>782</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1211</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1353</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1438</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1456</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1458</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1537</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1571</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,41 +2617,20 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Data Trend'!$A$4:$A$15</c:f>
+              <c:f>'Data Trend'!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2007</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
@@ -2701,41 +2638,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Trend'!$B$4:$B$15</c:f>
+              <c:f>'Data Trend'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>105988</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75153</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1267</c:v>
+                  <c:v>5020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>126718</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>657931</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7120541</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5020</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>3414194</c:v>
                 </c:pt>
               </c:numCache>
@@ -3011,36 +2927,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3048,46 +2934,6 @@
                 <c:manualLayout>
                   <c:x val="0.334261838440112"/>
                   <c:y val="0.07564130673098"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.179987143775445"/>
-                  <c:y val="0.0723525542644157"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.112491964859653"/>
-                  <c:y val="-0.134838851129138"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3158,35 +3004,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bank Capital'!$A$4:$A$7</c:f>
+              <c:f>'Bank Capital'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>IMF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>United Nations</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>World Bank</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bank Capital'!$B$4:$B$7</c:f>
+              <c:f>'Bank Capital'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3423414</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3962109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4220814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,36 +3857,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -4060,46 +3864,6 @@
                 <c:manualLayout>
                   <c:x val="0.154274694664667"/>
                   <c:y val="-0.0822188116641087"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.179987143775445"/>
-                  <c:y val="0.0723525542644157"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.112491964859653"/>
-                  <c:y val="-0.134838851129138"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -4170,35 +3934,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Bank Capital'!$A$4:$A$7</c:f>
+              <c:f>'Bank Capital'!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>IMF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>United Nations</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>World Bank</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bank Capital'!$B$4:$B$7</c:f>
+              <c:f>'Bank Capital'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3423414</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3962109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4220814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4368,34 +4120,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Monaco</c:v>
+                  <c:v>Luxembourg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Luxembourg</c:v>
+                  <c:v>Ireland</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Liechtenstein</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ireland</c:v>
+                  <c:v>Switzerland</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Switzerland</c:v>
+                  <c:v>Singapore</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Norway</c:v>
+                  <c:v>Qatar</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Singapore</c:v>
+                  <c:v>United States</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bermuda</c:v>
+                  <c:v>Iceland</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>United States</c:v>
+                  <c:v>Denmark</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Qatar</c:v>
+                  <c:v>Australia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4407,34 +4159,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>468633</c:v>
+                  <c:v>132372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>399707</c:v>
+                  <c:v>114581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>327015</c:v>
+                  <c:v>101103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>315862</c:v>
+                  <c:v>98767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>284284</c:v>
+                  <c:v>91100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>279499</c:v>
+                  <c:v>83891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>230716</c:v>
+                  <c:v>80034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>226743</c:v>
+                  <c:v>75180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219468</c:v>
+                  <c:v>68827</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>217528</c:v>
+                  <c:v>64964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4704,34 +4456,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>North Korea</c:v>
+                  <c:v>Burundi</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Burundi</c:v>
+                  <c:v>Sierra Leone</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zanzibar</c:v>
+                  <c:v>South Sudan</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Afghanistan</c:v>
+                  <c:v>Malawi</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sierra Leone</c:v>
+                  <c:v>Central African Republic</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Madagascar</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Somalia</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Central African Republic</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Syria</c:v>
+                  <c:v>Yemen</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Madagascar</c:v>
+                  <c:v>Mozambique</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Mozambique</c:v>
+                  <c:v>Afghanistan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4743,34 +4495,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>654</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>782</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1211</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1353</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1438</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1456</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1458</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1537</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1571</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10911,7 +10663,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2540000" y="901700"/>
+        <a:off x="2320925" y="901700"/>
         <a:ext cx="2963545" cy="2896235"/>
       </xdr:xfrm>
       <a:graphic>
@@ -25508,8 +25260,8 @@
     <pivotField compact="0" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -26112,19 +25864,10 @@
   </rowFields>
   <rowItems count="223">
     <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
       <x v="116"/>
     </i>
     <i>
       <x v="94"/>
-    </i>
-    <i>
-      <x v="22"/>
     </i>
     <i>
       <x v="149"/>
@@ -26136,12 +25879,6 @@
       <x v="178"/>
     </i>
     <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
       <x v="162"/>
     </i>
     <i>
@@ -26149,12 +25886,6 @@
     </i>
     <i>
       <x v="89"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="67"/>
     </i>
     <i>
       <x v="53"/>
@@ -26166,16 +25897,13 @@
       <x v="140"/>
     </i>
     <i>
-      <x v="191"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
       <x v="12"/>
     </i>
     <i>
       <x v="96"/>
+    </i>
+    <i>
+      <x v="191"/>
     </i>
     <i>
       <x v="69"/>
@@ -26202,9 +25930,6 @@
       <x v="209"/>
     </i>
     <i>
-      <x v="28"/>
-    </i>
-    <i>
       <x v="142"/>
     </i>
     <i>
@@ -26220,16 +25945,7 @@
       <x v="66"/>
     </i>
     <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="213"/>
-    </i>
-    <i>
       <x v="161"/>
-    </i>
-    <i>
-      <x v="141"/>
     </i>
     <i>
       <x v="123"/>
@@ -26238,16 +25954,13 @@
       <x v="97"/>
     </i>
     <i>
-      <x v="80"/>
-    </i>
-    <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="100"/>
     </i>
     <i>
-      <x v="185"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="194"/>
@@ -26257,6 +25970,9 @@
     </i>
     <i>
       <x v="106"/>
+    </i>
+    <i>
+      <x v="185"/>
     </i>
     <i>
       <x v="10"/>
@@ -26277,9 +25993,6 @@
       <x v="173"/>
     </i>
     <i>
-      <x v="179"/>
-    </i>
-    <i>
       <x v="15"/>
     </i>
     <i>
@@ -26292,9 +26005,6 @@
       <x v="109"/>
     </i>
     <i>
-      <x v="148"/>
-    </i>
-    <i>
       <x v="180"/>
     </i>
     <i>
@@ -26304,25 +26014,16 @@
       <x v="150"/>
     </i>
     <i>
-      <x v="168"/>
-    </i>
-    <i>
       <x v="212"/>
     </i>
     <i>
       <x v="17"/>
     </i>
     <i>
-      <x v="205"/>
-    </i>
-    <i>
       <x v="84"/>
     </i>
     <i>
       <x v="48"/>
-    </i>
-    <i>
-      <x v="71"/>
     </i>
     <i>
       <x v="159"/>
@@ -26337,12 +26038,6 @@
       <x v="88"/>
     </i>
     <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="163"/>
     </i>
     <i>
@@ -26355,22 +26050,10 @@
       <x v="41"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
       <x v="121"/>
     </i>
     <i>
       <x v="154"/>
-    </i>
-    <i>
-      <x v="133"/>
-    </i>
-    <i>
-      <x v="216"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="30"/>
@@ -26403,9 +26086,6 @@
       <x v="127"/>
     </i>
     <i>
-      <x v="138"/>
-    </i>
-    <i>
       <x v="102"/>
     </i>
     <i>
@@ -26415,6 +26095,9 @@
       <x v="203"/>
     </i>
     <i>
+      <x v="138"/>
+    </i>
+    <i>
       <x v="126"/>
     </i>
     <i>
@@ -26422,9 +26105,6 @@
     </i>
     <i>
       <x v="132"/>
-    </i>
-    <i>
-      <x v="49"/>
     </i>
     <i>
       <x v="79"/>
@@ -26475,16 +26155,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="184"/>
-    </i>
-    <i>
       <x v="20"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="92"/>
     </i>
     <i>
       <x v="113"/>
@@ -26494,6 +26165,9 @@
     </i>
     <i>
       <x v="58"/>
+    </i>
+    <i>
+      <x v="184"/>
     </i>
     <i>
       <x v="43"/>
@@ -26508,16 +26182,13 @@
       <x v="93"/>
     </i>
     <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="156"/>
-    </i>
-    <i>
       <x v="206"/>
     </i>
     <i>
       <x v="68"/>
+    </i>
+    <i>
+      <x v="156"/>
     </i>
     <i>
       <x v="105"/>
@@ -26535,6 +26206,9 @@
       <x v="60"/>
     </i>
     <i>
+      <x v="124"/>
+    </i>
+    <i>
       <x v="137"/>
     </i>
     <i>
@@ -26544,10 +26218,10 @@
       <x v="91"/>
     </i>
     <i>
-      <x v="208"/>
+      <x v="131"/>
     </i>
     <i>
-      <x v="131"/>
+      <x v="208"/>
     </i>
     <i>
       <x v="2"/>
@@ -26565,22 +26239,16 @@
       <x v="36"/>
     </i>
     <i>
+      <x v="92"/>
+    </i>
+    <i>
       <x v="64"/>
     </i>
     <i>
       <x v="202"/>
     </i>
     <i>
-      <x v="188"/>
-    </i>
-    <i>
       <x v="158"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="134"/>
     </i>
     <i>
       <x v="54"/>
@@ -26589,13 +26257,28 @@
       <x v="24"/>
     </i>
     <i>
-      <x v="153"/>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="110"/>
     </i>
     <i>
       <x v="155"/>
     </i>
     <i>
+      <x v="153"/>
+    </i>
+    <i>
       <x v="23"/>
+    </i>
+    <i>
+      <x v="188"/>
     </i>
     <i>
       <x v="86"/>
@@ -26605,9 +26288,6 @@
     </i>
     <i>
       <x v="215"/>
-    </i>
-    <i>
-      <x v="198"/>
     </i>
     <i>
       <x v="172"/>
@@ -26625,9 +26305,6 @@
       <x v="45"/>
     </i>
     <i>
-      <x v="108"/>
-    </i>
-    <i>
       <x v="214"/>
     </i>
     <i>
@@ -26635,9 +26312,6 @@
     </i>
     <i>
       <x v="16"/>
-    </i>
-    <i>
-      <x v="76"/>
     </i>
     <i>
       <x v="182"/>
@@ -26652,10 +26326,16 @@
       <x v="85"/>
     </i>
     <i>
+      <x v="76"/>
+    </i>
+    <i>
       <x v="104"/>
     </i>
     <i>
       <x v="33"/>
+    </i>
+    <i>
+      <x v="108"/>
     </i>
     <i>
       <x v="222"/>
@@ -26673,13 +26353,13 @@
       <x v="151"/>
     </i>
     <i>
-      <x v="44"/>
-    </i>
-    <i>
       <x v="82"/>
     </i>
     <i>
       <x v="65"/>
+    </i>
+    <i>
+      <x v="198"/>
     </i>
     <i>
       <x v="220"/>
@@ -26691,25 +26371,22 @@
       <x v="139"/>
     </i>
     <i>
+      <x v="44"/>
+    </i>
+    <i>
       <x v="196"/>
     </i>
     <i>
       <x v="195"/>
     </i>
     <i>
-      <x v="221"/>
+      <x v="111"/>
     </i>
     <i>
       <x v="136"/>
     </i>
     <i>
-      <x v="111"/>
-    </i>
-    <i>
       <x v="207"/>
-    </i>
-    <i>
-      <x v="186"/>
     </i>
     <i>
       <x v="199"/>
@@ -26722,12 +26399,6 @@
     </i>
     <i>
       <x v="165"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="193"/>
     </i>
     <i>
       <x v="31"/>
@@ -26745,16 +26416,10 @@
       <x v="62"/>
     </i>
     <i>
-      <x v="219"/>
-    </i>
-    <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="146"/>
-    </i>
-    <i>
-      <x v="119"/>
+      <x v="39"/>
     </i>
     <i>
       <x v="144"/>
@@ -26766,6 +26431,9 @@
       <x v="135"/>
     </i>
     <i>
+      <x v="219"/>
+    </i>
+    <i>
       <x v="183"/>
     </i>
     <i>
@@ -26775,10 +26443,94 @@
       <x v="38"/>
     </i>
     <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
       <x v="177"/>
     </i>
     <i>
       <x v="32"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="213"/>
+    </i>
+    <i>
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -26826,8 +26578,908 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0">
+      <items count="670">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
+        <item x="558"/>
+        <item x="559"/>
+        <item x="560"/>
+        <item x="561"/>
+        <item x="562"/>
+        <item x="563"/>
+        <item x="564"/>
+        <item x="565"/>
+        <item x="566"/>
+        <item x="567"/>
+        <item x="568"/>
+        <item x="569"/>
+        <item x="570"/>
+        <item x="571"/>
+        <item x="572"/>
+        <item x="573"/>
+        <item x="574"/>
+        <item x="575"/>
+        <item x="576"/>
+        <item x="577"/>
+        <item x="578"/>
+        <item x="579"/>
+        <item x="580"/>
+        <item x="581"/>
+        <item x="582"/>
+        <item x="583"/>
+        <item x="584"/>
+        <item x="585"/>
+        <item x="586"/>
+        <item x="587"/>
+        <item x="588"/>
+        <item x="589"/>
+        <item x="590"/>
+        <item x="591"/>
+        <item x="592"/>
+        <item x="593"/>
+        <item x="594"/>
+        <item x="595"/>
+        <item x="596"/>
+        <item x="597"/>
+        <item x="598"/>
+        <item x="599"/>
+        <item x="600"/>
+        <item x="601"/>
+        <item x="602"/>
+        <item x="603"/>
+        <item x="604"/>
+        <item x="605"/>
+        <item x="606"/>
+        <item x="607"/>
+        <item x="608"/>
+        <item x="609"/>
+        <item x="610"/>
+        <item x="611"/>
+        <item x="612"/>
+        <item x="613"/>
+        <item x="614"/>
+        <item x="615"/>
+        <item x="616"/>
+        <item x="617"/>
+        <item x="618"/>
+        <item x="619"/>
+        <item x="620"/>
+        <item x="621"/>
+        <item x="622"/>
+        <item x="623"/>
+        <item x="624"/>
+        <item x="625"/>
+        <item x="626"/>
+        <item x="627"/>
+        <item x="628"/>
+        <item x="629"/>
+        <item x="630"/>
+        <item x="631"/>
+        <item x="632"/>
+        <item x="633"/>
+        <item x="634"/>
+        <item x="635"/>
+        <item x="636"/>
+        <item x="637"/>
+        <item x="638"/>
+        <item x="639"/>
+        <item x="640"/>
+        <item x="641"/>
+        <item x="642"/>
+        <item x="643"/>
+        <item x="644"/>
+        <item x="645"/>
+        <item x="646"/>
+        <item x="647"/>
+        <item x="648"/>
+        <item x="649"/>
+        <item x="650"/>
+        <item x="651"/>
+        <item x="652"/>
+        <item x="653"/>
+        <item x="654"/>
+        <item x="655"/>
+        <item x="656"/>
+        <item x="657"/>
+        <item x="658"/>
+        <item x="659"/>
+        <item x="660"/>
+        <item x="661"/>
+        <item x="662"/>
+        <item x="663"/>
+        <item x="664"/>
+        <item x="665"/>
+        <item x="666"/>
+        <item x="667"/>
+        <item x="668"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="224">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="7">
@@ -26887,9 +27539,237 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0">
+      <items count="225">
+        <item x="221"/>
+        <item x="119"/>
+        <item x="143"/>
+        <item x="85"/>
+        <item x="34"/>
+        <item x="163"/>
+        <item x="76"/>
+        <item x="78"/>
+        <item x="91"/>
+        <item x="113"/>
+        <item x="49"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="122"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="172"/>
+        <item x="66"/>
+        <item x="114"/>
+        <item x="23"/>
+        <item x="120"/>
+        <item x="190"/>
+        <item x="4"/>
+        <item x="160"/>
+        <item x="154"/>
+        <item x="111"/>
+        <item x="118"/>
+        <item x="107"/>
+        <item x="30"/>
+        <item x="44"/>
+        <item x="86"/>
+        <item x="204"/>
+        <item x="222"/>
+        <item x="179"/>
+        <item x="184"/>
+        <item x="25"/>
+        <item x="147"/>
+        <item x="9"/>
+        <item x="217"/>
+        <item x="210"/>
+        <item x="13"/>
+        <item x="80"/>
+        <item x="90"/>
+        <item x="125"/>
+        <item x="192"/>
+        <item x="169"/>
+        <item x="75"/>
+        <item x="88"/>
+        <item x="69"/>
+        <item x="103"/>
+        <item x="81"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="15"/>
+        <item x="153"/>
+        <item x="110"/>
+        <item x="101"/>
+        <item x="209"/>
+        <item x="123"/>
+        <item x="156"/>
+        <item x="136"/>
+        <item x="106"/>
+        <item x="208"/>
+        <item x="53"/>
+        <item x="149"/>
+        <item x="187"/>
+        <item x="35"/>
+        <item x="14"/>
+        <item x="130"/>
+        <item x="22"/>
+        <item x="33"/>
+        <item x="70"/>
+        <item x="109"/>
+        <item x="206"/>
+        <item x="116"/>
+        <item x="27"/>
+        <item x="177"/>
+        <item x="62"/>
+        <item x="18"/>
+        <item x="104"/>
+        <item x="41"/>
+        <item x="135"/>
+        <item x="186"/>
+        <item x="201"/>
+        <item x="68"/>
+        <item x="176"/>
+        <item x="162"/>
+        <item x="26"/>
+        <item x="74"/>
+        <item x="12"/>
+        <item x="167"/>
+        <item x="140"/>
+        <item x="148"/>
+        <item x="128"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="20"/>
+        <item x="40"/>
+        <item x="166"/>
+        <item x="127"/>
+        <item x="43"/>
+        <item x="139"/>
+        <item x="96"/>
+        <item x="175"/>
+        <item x="178"/>
+        <item x="132"/>
+        <item x="47"/>
+        <item x="182"/>
+        <item x="180"/>
+        <item x="59"/>
+        <item x="150"/>
+        <item x="196"/>
+        <item x="207"/>
+        <item x="121"/>
+        <item x="1"/>
+        <item x="56"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="216"/>
+        <item x="218"/>
+        <item x="93"/>
+        <item x="82"/>
+        <item x="205"/>
+        <item x="39"/>
+        <item x="137"/>
+        <item x="171"/>
+        <item x="100"/>
+        <item x="95"/>
+        <item x="146"/>
+        <item x="126"/>
+        <item x="0"/>
+        <item x="141"/>
+        <item x="102"/>
+        <item x="84"/>
+        <item x="155"/>
+        <item x="213"/>
+        <item x="197"/>
+        <item x="138"/>
+        <item x="99"/>
+        <item x="191"/>
+        <item x="17"/>
+        <item x="38"/>
+        <item x="31"/>
+        <item x="168"/>
+        <item x="212"/>
+        <item x="174"/>
+        <item x="211"/>
+        <item x="117"/>
+        <item x="60"/>
+        <item x="5"/>
+        <item x="63"/>
+        <item x="185"/>
+        <item x="87"/>
+        <item x="159"/>
+        <item x="83"/>
+        <item x="158"/>
+        <item x="131"/>
+        <item x="115"/>
+        <item x="152"/>
+        <item x="71"/>
+        <item x="58"/>
+        <item x="37"/>
+        <item x="10"/>
+        <item x="77"/>
+        <item x="89"/>
+        <item x="202"/>
+        <item x="79"/>
+        <item x="97"/>
+        <item x="64"/>
+        <item x="108"/>
+        <item x="145"/>
+        <item x="24"/>
+        <item x="165"/>
+        <item x="54"/>
+        <item x="183"/>
+        <item x="105"/>
+        <item x="73"/>
+        <item x="220"/>
+        <item x="7"/>
+        <item x="57"/>
+        <item x="61"/>
+        <item x="50"/>
+        <item x="173"/>
+        <item x="215"/>
+        <item x="124"/>
+        <item x="48"/>
+        <item x="219"/>
+        <item x="52"/>
+        <item x="161"/>
+        <item x="200"/>
+        <item x="133"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="203"/>
+        <item x="45"/>
+        <item x="194"/>
+        <item x="193"/>
+        <item x="112"/>
+        <item x="188"/>
+        <item x="199"/>
+        <item x="134"/>
+        <item x="72"/>
+        <item x="151"/>
+        <item x="98"/>
+        <item x="94"/>
+        <item x="67"/>
+        <item x="129"/>
+        <item x="198"/>
+        <item x="142"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="11"/>
+        <item x="65"/>
+        <item x="36"/>
+        <item x="170"/>
+        <item x="164"/>
+        <item x="157"/>
+        <item x="144"/>
+        <item x="92"/>
+        <item x="214"/>
+        <item x="189"/>
+        <item x="195"/>
+        <item x="181"/>
+        <item x="223"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" sortType="ascending" showAll="0">
       <items count="8">
         <item x="4"/>
@@ -26911,9 +27791,33 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
+    <pivotField axis="axisPage" compact="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -26947,6 +27851,9 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="2"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Year" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
@@ -26961,7 +27868,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" showAll="0">
       <items count="670">
@@ -28107,8 +29014,8 @@
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -28709,15 +29616,9 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -28740,7 +29641,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" rowGrandTotals="0" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0">
-  <location ref="A3:B226" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:B200" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField compact="0" showAll="0">
       <items count="670">
@@ -29895,8 +30796,8 @@
     <pivotField compact="0" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -30497,21 +31398,12 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="223">
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
+  <rowItems count="197">
     <i>
       <x v="116"/>
     </i>
     <i>
       <x v="94"/>
-    </i>
-    <i>
-      <x v="22"/>
     </i>
     <i>
       <x v="149"/>
@@ -30523,12 +31415,6 @@
       <x v="178"/>
     </i>
     <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
       <x v="162"/>
     </i>
     <i>
@@ -30536,12 +31422,6 @@
     </i>
     <i>
       <x v="89"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="67"/>
     </i>
     <i>
       <x v="53"/>
@@ -30553,16 +31433,13 @@
       <x v="140"/>
     </i>
     <i>
-      <x v="191"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
       <x v="12"/>
     </i>
     <i>
       <x v="96"/>
+    </i>
+    <i>
+      <x v="191"/>
     </i>
     <i>
       <x v="69"/>
@@ -30589,9 +31466,6 @@
       <x v="209"/>
     </i>
     <i>
-      <x v="28"/>
-    </i>
-    <i>
       <x v="142"/>
     </i>
     <i>
@@ -30607,16 +31481,7 @@
       <x v="66"/>
     </i>
     <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="213"/>
-    </i>
-    <i>
       <x v="161"/>
-    </i>
-    <i>
-      <x v="141"/>
     </i>
     <i>
       <x v="123"/>
@@ -30625,16 +31490,13 @@
       <x v="97"/>
     </i>
     <i>
-      <x v="80"/>
-    </i>
-    <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="100"/>
     </i>
     <i>
-      <x v="185"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="194"/>
@@ -30644,6 +31506,9 @@
     </i>
     <i>
       <x v="106"/>
+    </i>
+    <i>
+      <x v="185"/>
     </i>
     <i>
       <x v="10"/>
@@ -30664,9 +31529,6 @@
       <x v="173"/>
     </i>
     <i>
-      <x v="179"/>
-    </i>
-    <i>
       <x v="15"/>
     </i>
     <i>
@@ -30679,9 +31541,6 @@
       <x v="109"/>
     </i>
     <i>
-      <x v="148"/>
-    </i>
-    <i>
       <x v="180"/>
     </i>
     <i>
@@ -30691,25 +31550,16 @@
       <x v="150"/>
     </i>
     <i>
-      <x v="168"/>
-    </i>
-    <i>
       <x v="212"/>
     </i>
     <i>
       <x v="17"/>
     </i>
     <i>
-      <x v="205"/>
-    </i>
-    <i>
       <x v="84"/>
     </i>
     <i>
       <x v="48"/>
-    </i>
-    <i>
-      <x v="71"/>
     </i>
     <i>
       <x v="159"/>
@@ -30724,12 +31574,6 @@
       <x v="88"/>
     </i>
     <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="163"/>
     </i>
     <i>
@@ -30742,22 +31586,10 @@
       <x v="41"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
       <x v="121"/>
     </i>
     <i>
       <x v="154"/>
-    </i>
-    <i>
-      <x v="133"/>
-    </i>
-    <i>
-      <x v="216"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="30"/>
@@ -30790,9 +31622,6 @@
       <x v="127"/>
     </i>
     <i>
-      <x v="138"/>
-    </i>
-    <i>
       <x v="102"/>
     </i>
     <i>
@@ -30802,6 +31631,9 @@
       <x v="203"/>
     </i>
     <i>
+      <x v="138"/>
+    </i>
+    <i>
       <x v="126"/>
     </i>
     <i>
@@ -30809,9 +31641,6 @@
     </i>
     <i>
       <x v="132"/>
-    </i>
-    <i>
-      <x v="49"/>
     </i>
     <i>
       <x v="79"/>
@@ -30862,16 +31691,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="184"/>
-    </i>
-    <i>
       <x v="20"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="92"/>
     </i>
     <i>
       <x v="113"/>
@@ -30881,6 +31701,9 @@
     </i>
     <i>
       <x v="58"/>
+    </i>
+    <i>
+      <x v="184"/>
     </i>
     <i>
       <x v="43"/>
@@ -30895,16 +31718,13 @@
       <x v="93"/>
     </i>
     <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="156"/>
-    </i>
-    <i>
       <x v="206"/>
     </i>
     <i>
       <x v="68"/>
+    </i>
+    <i>
+      <x v="156"/>
     </i>
     <i>
       <x v="105"/>
@@ -30922,6 +31742,9 @@
       <x v="60"/>
     </i>
     <i>
+      <x v="124"/>
+    </i>
+    <i>
       <x v="137"/>
     </i>
     <i>
@@ -30931,10 +31754,10 @@
       <x v="91"/>
     </i>
     <i>
-      <x v="208"/>
+      <x v="131"/>
     </i>
     <i>
-      <x v="131"/>
+      <x v="208"/>
     </i>
     <i>
       <x v="2"/>
@@ -30952,22 +31775,16 @@
       <x v="36"/>
     </i>
     <i>
+      <x v="92"/>
+    </i>
+    <i>
       <x v="64"/>
     </i>
     <i>
       <x v="202"/>
     </i>
     <i>
-      <x v="188"/>
-    </i>
-    <i>
       <x v="158"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="134"/>
     </i>
     <i>
       <x v="54"/>
@@ -30976,13 +31793,28 @@
       <x v="24"/>
     </i>
     <i>
-      <x v="153"/>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="110"/>
     </i>
     <i>
       <x v="155"/>
     </i>
     <i>
+      <x v="153"/>
+    </i>
+    <i>
       <x v="23"/>
+    </i>
+    <i>
+      <x v="188"/>
     </i>
     <i>
       <x v="86"/>
@@ -30992,9 +31824,6 @@
     </i>
     <i>
       <x v="215"/>
-    </i>
-    <i>
-      <x v="198"/>
     </i>
     <i>
       <x v="172"/>
@@ -31012,9 +31841,6 @@
       <x v="45"/>
     </i>
     <i>
-      <x v="108"/>
-    </i>
-    <i>
       <x v="214"/>
     </i>
     <i>
@@ -31022,9 +31848,6 @@
     </i>
     <i>
       <x v="16"/>
-    </i>
-    <i>
-      <x v="76"/>
     </i>
     <i>
       <x v="182"/>
@@ -31039,10 +31862,16 @@
       <x v="85"/>
     </i>
     <i>
+      <x v="76"/>
+    </i>
+    <i>
       <x v="104"/>
     </i>
     <i>
       <x v="33"/>
+    </i>
+    <i>
+      <x v="108"/>
     </i>
     <i>
       <x v="222"/>
@@ -31060,13 +31889,13 @@
       <x v="151"/>
     </i>
     <i>
-      <x v="44"/>
-    </i>
-    <i>
       <x v="82"/>
     </i>
     <i>
       <x v="65"/>
+    </i>
+    <i>
+      <x v="198"/>
     </i>
     <i>
       <x v="220"/>
@@ -31078,25 +31907,22 @@
       <x v="139"/>
     </i>
     <i>
+      <x v="44"/>
+    </i>
+    <i>
       <x v="196"/>
     </i>
     <i>
       <x v="195"/>
     </i>
     <i>
-      <x v="221"/>
+      <x v="111"/>
     </i>
     <i>
       <x v="136"/>
     </i>
     <i>
-      <x v="111"/>
-    </i>
-    <i>
       <x v="207"/>
-    </i>
-    <i>
-      <x v="186"/>
     </i>
     <i>
       <x v="199"/>
@@ -31109,12 +31935,6 @@
     </i>
     <i>
       <x v="165"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="193"/>
     </i>
     <i>
       <x v="31"/>
@@ -31132,16 +31952,10 @@
       <x v="62"/>
     </i>
     <i>
-      <x v="219"/>
-    </i>
-    <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="146"/>
-    </i>
-    <i>
-      <x v="119"/>
+      <x v="39"/>
     </i>
     <i>
       <x v="144"/>
@@ -31153,6 +31967,9 @@
       <x v="135"/>
     </i>
     <i>
+      <x v="219"/>
+    </i>
+    <i>
       <x v="183"/>
     </i>
     <i>
@@ -31160,6 +31977,12 @@
     </i>
     <i>
       <x v="38"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="186"/>
     </i>
     <i>
       <x v="177"/>
@@ -32343,8 +33166,8 @@
     <pivotField compact="0" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -32947,34 +33770,34 @@
   </rowFields>
   <rowItems count="10">
     <i>
-      <x v="130"/>
-    </i>
-    <i>
       <x v="116"/>
-    </i>
-    <i>
-      <x v="114"/>
     </i>
     <i>
       <x v="94"/>
     </i>
     <i>
-      <x v="192"/>
+      <x v="149"/>
     </i>
     <i>
-      <x v="149"/>
+      <x v="192"/>
     </i>
     <i>
       <x v="178"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="162"/>
     </i>
     <i>
       <x v="211"/>
     </i>
     <i>
-      <x v="162"/>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -34162,8 +34985,8 @@
     <pivotField compact="0" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -34766,34 +35589,34 @@
   </rowFields>
   <rowItems count="11">
     <i>
-      <x v="146"/>
-    </i>
-    <i>
       <x v="32"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i>
       <x v="177"/>
     </i>
     <i>
-      <x v="183"/>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="119"/>
     </i>
     <i>
       <x v="38"/>
     </i>
     <i>
-      <x v="193"/>
-    </i>
-    <i>
       <x v="118"/>
     </i>
     <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
       <x v="135"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -34829,7 +35652,7 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" showAll="0">
       <items count="670">
@@ -35975,8 +36798,8 @@
     <pivotField compact="0" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -36577,33 +37400,12 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i>
       <x v="9"/>
@@ -36631,70 +37433,6 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-    <pivotTable tabId="4" name="PivotTable3"/>
-    <pivotTable tabId="6" name="PivotTable2"/>
-    <pivotTable tabId="3" name="PivotTable4"/>
-    <pivotTable tabId="7" name="PivotTable7"/>
-    <pivotTable tabId="8" name="PivotTable1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="11">
-        <i x="0" s="1"/>
-        <i x="5" s="1"/>
-        <i x="9" s="1"/>
-        <i x="7" s="1"/>
-        <i x="10" s="1"/>
-        <i x="6" s="1"/>
-        <i x="4" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
-        <i x="8" s="1"/>
-        <i x="3" s="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst/>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Bank" sourceName="Bank">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-    <pivotTable tabId="4" name="PivotTable3"/>
-    <pivotTable tabId="6" name="PivotTable2"/>
-    <pivotTable tabId="3" name="PivotTable4"/>
-    <pivotTable tabId="7" name="PivotTable7"/>
-    <pivotTable tabId="8" name="PivotTable1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="3">
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst/>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_UN_Region" sourceName="UN Region">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="4"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Country_Territory" sourceName="Country/Territory">
   <pivotTables>
     <pivotTable tabId="6" name="PivotTable2"/>
@@ -36934,6 +37672,70 @@
     </tabular>
   </data>
   <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Bank" sourceName="Bank">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="4" name="PivotTable3"/>
+    <pivotTable tabId="6" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="0"/>
+        <i x="1" s="0"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="4" name="PivotTable3"/>
+    <pivotTable tabId="6" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="11">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="8" s="1"/>
+        <i x="3" s="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_UN_Region" sourceName="UN Region">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="4"/>
+    </x:ext>
+  </extLst>
 </slicerCacheDefinition>
 </file>
 
@@ -52685,7 +53487,7 @@
   <sheetPr/>
   <dimension ref="B1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -52722,1322 +53524,1322 @@
     </row>
     <row r="23" spans="5:6">
       <c r="E23" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>234317</v>
+        <v>132372</v>
       </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>169260</v>
+        <v>114581</v>
       </c>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>133745</v>
+        <v>101103</v>
       </c>
     </row>
     <row r="26" spans="5:6">
       <c r="E26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>114581</v>
+        <v>98767</v>
       </c>
     </row>
     <row r="27" spans="5:6">
       <c r="E27" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F27">
-        <v>114090</v>
+        <v>91100</v>
       </c>
     </row>
     <row r="28" spans="5:6">
       <c r="E28" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>101103</v>
+        <v>83891</v>
       </c>
     </row>
     <row r="29" spans="5:6">
       <c r="E29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F29">
-        <v>98767</v>
+        <v>80034</v>
       </c>
     </row>
     <row r="30" spans="5:6">
       <c r="E30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F30">
-        <v>91100</v>
+        <v>75180</v>
       </c>
     </row>
     <row r="31" spans="5:6">
       <c r="E31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F31">
-        <v>87158</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="32" spans="5:6">
       <c r="E32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F32">
-        <v>86569</v>
+        <v>64964</v>
       </c>
     </row>
     <row r="33" spans="5:6">
       <c r="E33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F33">
-        <v>83891</v>
+        <v>61098</v>
       </c>
     </row>
     <row r="34" spans="5:6">
       <c r="E34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F34">
-        <v>80034</v>
+        <v>56802</v>
       </c>
     </row>
     <row r="35" spans="5:6">
       <c r="E35" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F35">
-        <v>75180</v>
+        <v>55535</v>
       </c>
     </row>
     <row r="36" spans="5:6">
       <c r="E36" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F36">
-        <v>75153</v>
+        <v>55395</v>
       </c>
     </row>
     <row r="37" spans="5:6">
       <c r="E37" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>69010</v>
+        <v>54351</v>
       </c>
     </row>
     <row r="38" spans="5:6">
       <c r="E38" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F38">
-        <v>68827</v>
+        <v>53377</v>
       </c>
     </row>
     <row r="39" spans="5:6">
       <c r="E39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>66916</v>
+        <v>52949</v>
       </c>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F40">
-        <v>61098</v>
+        <v>52722</v>
       </c>
     </row>
     <row r="41" spans="5:6">
       <c r="E41" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>61029</v>
+        <v>52429</v>
       </c>
     </row>
     <row r="42" spans="5:6">
       <c r="E42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F42">
-        <v>58185</v>
+        <v>51383</v>
       </c>
     </row>
     <row r="43" spans="5:6">
       <c r="E43" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F43">
-        <v>56802</v>
+        <v>50571</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F44">
-        <v>55535</v>
+        <v>49451</v>
       </c>
     </row>
     <row r="45" spans="5:6">
       <c r="E45" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F45">
-        <v>54351</v>
+        <v>48826</v>
       </c>
     </row>
     <row r="46" spans="5:6">
       <c r="E46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F46">
-        <v>53377</v>
+        <v>46371</v>
       </c>
     </row>
     <row r="47" spans="5:6">
       <c r="E47" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F47">
-        <v>52949</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="48" spans="5:6">
       <c r="E48" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F48">
-        <v>52722</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="49" spans="5:6">
       <c r="E49" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F49">
-        <v>52429</v>
+        <v>39940</v>
       </c>
     </row>
     <row r="50" spans="5:6">
       <c r="E50" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F50">
-        <v>51383</v>
+        <v>38567</v>
       </c>
     </row>
     <row r="51" spans="5:6">
       <c r="E51" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F51">
-        <v>50571</v>
+        <v>36989</v>
       </c>
     </row>
     <row r="52" spans="5:6">
       <c r="E52" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F52">
-        <v>49451</v>
+        <v>36812</v>
       </c>
     </row>
     <row r="53" spans="5:6">
       <c r="E53" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F53">
-        <v>49444</v>
+        <v>35458</v>
       </c>
     </row>
     <row r="54" spans="5:6">
       <c r="E54" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F54">
-        <v>48826</v>
+        <v>35385</v>
       </c>
     </row>
     <row r="55" spans="5:6">
       <c r="E55" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F55">
-        <v>46542</v>
+        <v>35103</v>
       </c>
     </row>
     <row r="56" spans="5:6">
       <c r="E56" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F56">
-        <v>44408</v>
+        <v>33907</v>
       </c>
     </row>
     <row r="57" spans="5:6">
       <c r="E57" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F57">
-        <v>44387</v>
+        <v>33807</v>
       </c>
     </row>
     <row r="58" spans="5:6">
       <c r="E58" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F58">
-        <v>39940</v>
+        <v>33646</v>
       </c>
     </row>
     <row r="59" spans="5:6">
       <c r="E59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F59">
-        <v>39650</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="60" spans="5:6">
       <c r="E60" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F60">
-        <v>39552</v>
+        <v>33094</v>
       </c>
     </row>
     <row r="61" spans="5:6">
       <c r="E61" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F61">
-        <v>38567</v>
+        <v>32214</v>
       </c>
     </row>
     <row r="62" spans="5:6">
       <c r="E62" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F62">
-        <v>37160</v>
+        <v>31368</v>
       </c>
     </row>
     <row r="63" spans="5:6">
       <c r="E63" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F63">
-        <v>36989</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="64" spans="5:6">
       <c r="E64" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F64">
-        <v>36812</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="65" spans="5:6">
       <c r="E65" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F65">
-        <v>35905</v>
+        <v>29922</v>
       </c>
     </row>
     <row r="66" spans="5:6">
       <c r="E66" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F66">
-        <v>35458</v>
+        <v>28385</v>
       </c>
     </row>
     <row r="67" spans="5:6">
       <c r="E67" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F67">
-        <v>35103</v>
+        <v>28094</v>
       </c>
     </row>
     <row r="68" spans="5:6">
       <c r="E68" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F68">
-        <v>34998</v>
+        <v>26012</v>
       </c>
     </row>
     <row r="69" spans="5:6">
       <c r="E69" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F69">
-        <v>33907</v>
+        <v>25136</v>
       </c>
     </row>
     <row r="70" spans="5:6">
       <c r="E70" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F70">
-        <v>33807</v>
+        <v>23457</v>
       </c>
     </row>
     <row r="71" spans="5:6">
       <c r="E71" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F71">
-        <v>33646</v>
+        <v>22595</v>
       </c>
     </row>
     <row r="72" spans="5:6">
       <c r="E72" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F72">
-        <v>33094</v>
+        <v>21960</v>
       </c>
     </row>
     <row r="73" spans="5:6">
       <c r="E73" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F73">
-        <v>32214</v>
+        <v>21677</v>
       </c>
     </row>
     <row r="74" spans="5:6">
       <c r="E74" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F74">
-        <v>31368</v>
+        <v>21085</v>
       </c>
     </row>
     <row r="75" spans="5:6">
       <c r="E75" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F75">
-        <v>31223</v>
+        <v>20539</v>
       </c>
     </row>
     <row r="76" spans="5:6">
       <c r="E76" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F76">
-        <v>31209</v>
+        <v>20537</v>
       </c>
     </row>
     <row r="77" spans="5:6">
       <c r="E77" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F77">
-        <v>29922</v>
+        <v>19912</v>
       </c>
     </row>
     <row r="78" spans="5:6">
       <c r="E78" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F78">
-        <v>28988</v>
+        <v>19858</v>
       </c>
     </row>
     <row r="79" spans="5:6">
       <c r="E79" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F79">
-        <v>28385</v>
+        <v>19536</v>
       </c>
     </row>
     <row r="80" spans="5:6">
       <c r="E80" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F80">
-        <v>28094</v>
+        <v>19385</v>
       </c>
     </row>
     <row r="81" spans="5:6">
       <c r="E81" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F81">
-        <v>26012</v>
+        <v>18530</v>
       </c>
     </row>
     <row r="82" spans="5:6">
       <c r="E82" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F82">
-        <v>25136</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="83" spans="5:6">
       <c r="E83" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F83">
-        <v>23707</v>
+        <v>17856</v>
       </c>
     </row>
     <row r="84" spans="5:6">
       <c r="E84" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F84">
-        <v>23457</v>
+        <v>17827</v>
       </c>
     </row>
     <row r="85" spans="5:6">
       <c r="E85" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F85">
-        <v>22595</v>
+        <v>17626</v>
       </c>
     </row>
     <row r="86" spans="5:6">
       <c r="E86" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F86">
-        <v>21960</v>
+        <v>17350</v>
       </c>
     </row>
     <row r="87" spans="5:6">
       <c r="E87" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F87">
-        <v>21921</v>
+        <v>14893</v>
       </c>
     </row>
     <row r="88" spans="5:6">
       <c r="E88" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F88">
-        <v>21677</v>
+        <v>14804</v>
       </c>
     </row>
     <row r="89" spans="5:6">
       <c r="E89" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F89">
-        <v>21085</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="90" spans="5:6">
       <c r="E90" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F90">
-        <v>20909</v>
+        <v>14403</v>
       </c>
     </row>
     <row r="91" spans="5:6">
       <c r="E91" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F91">
-        <v>20539</v>
+        <v>13721</v>
       </c>
     </row>
     <row r="92" spans="5:6">
       <c r="E92" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F92">
-        <v>20537</v>
+        <v>13709</v>
       </c>
     </row>
     <row r="93" spans="5:6">
       <c r="E93" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F93">
-        <v>19915</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="94" spans="5:6">
       <c r="E94" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F94">
-        <v>19912</v>
+        <v>13382</v>
       </c>
     </row>
     <row r="95" spans="5:6">
       <c r="E95" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F95">
-        <v>19858</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="96" spans="5:6">
       <c r="E96" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F96">
-        <v>19536</v>
+        <v>12673</v>
       </c>
     </row>
     <row r="97" spans="5:6">
       <c r="E97" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F97">
-        <v>19385</v>
+        <v>12306</v>
       </c>
     </row>
     <row r="98" spans="5:6">
       <c r="E98" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F98">
-        <v>19264</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="99" spans="5:6">
       <c r="E99" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F99">
-        <v>19216</v>
+        <v>11931</v>
       </c>
     </row>
     <row r="100" spans="5:6">
       <c r="E100" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F100">
-        <v>18530</v>
+        <v>11825</v>
       </c>
     </row>
     <row r="101" spans="5:6">
       <c r="E101" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F101">
-        <v>18244</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="102" spans="5:6">
       <c r="E102" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F102">
-        <v>18083</v>
+        <v>11308</v>
       </c>
     </row>
     <row r="103" spans="5:6">
       <c r="E103" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F103">
-        <v>17827</v>
+        <v>11289</v>
       </c>
     </row>
     <row r="104" spans="5:6">
       <c r="E104" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F104">
-        <v>17718</v>
+        <v>11137</v>
       </c>
     </row>
     <row r="105" spans="5:6">
       <c r="E105" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F105">
-        <v>17626</v>
+        <v>10849</v>
       </c>
     </row>
     <row r="106" spans="5:6">
       <c r="E106" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F106">
-        <v>17350</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="107" spans="5:6">
       <c r="E107" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F107">
-        <v>16199</v>
+        <v>9673</v>
       </c>
     </row>
     <row r="108" spans="5:6">
       <c r="E108" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="F108">
-        <v>15976</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="109" spans="5:6">
       <c r="E109" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F109">
-        <v>15743</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="110" spans="5:6">
       <c r="E110" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F110">
-        <v>14893</v>
+        <v>9144</v>
       </c>
     </row>
     <row r="111" spans="5:6">
       <c r="E111" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F111">
-        <v>14804</v>
+        <v>8223</v>
       </c>
     </row>
     <row r="112" spans="5:6">
       <c r="E112" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="F112">
-        <v>14733</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="113" spans="5:6">
       <c r="E113" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F113">
-        <v>14403</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="114" spans="5:6">
       <c r="E114" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F114">
-        <v>13721</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="115" spans="5:6">
       <c r="E115" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F115">
-        <v>13709</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="116" spans="5:6">
       <c r="E116" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F116">
-        <v>13440</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="117" spans="5:6">
       <c r="E117" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F117">
-        <v>13382</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="118" spans="5:6">
       <c r="E118" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F118">
-        <v>13065</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="119" spans="5:6">
       <c r="E119" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F119">
-        <v>12673</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="120" spans="5:6">
       <c r="E120" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F120">
-        <v>12390</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="121" spans="5:6">
       <c r="E121" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="F121">
-        <v>12306</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="122" spans="5:6">
       <c r="E122" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="F122">
-        <v>12264</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="123" spans="5:6">
       <c r="E123" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="F123">
-        <v>11931</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="124" spans="5:6">
       <c r="E124" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F124">
-        <v>11548</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="125" spans="5:6">
       <c r="E125" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F125">
-        <v>11308</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="126" spans="5:6">
       <c r="E126" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F126">
-        <v>11289</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="127" spans="5:6">
       <c r="E127" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="F127">
-        <v>11255</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="128" spans="5:6">
       <c r="E128" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="F128">
-        <v>11137</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="129" spans="5:6">
       <c r="E129" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F129">
-        <v>10849</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="130" spans="5:6">
       <c r="E130" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F130">
-        <v>9777</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="131" spans="5:6">
       <c r="E131" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="F131">
-        <v>9673</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="132" spans="5:6">
       <c r="E132" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F132">
-        <v>9359</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="133" spans="5:6">
       <c r="E133" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F133">
-        <v>9294</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="134" spans="5:6">
       <c r="E134" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F134">
-        <v>9144</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="135" spans="5:6">
       <c r="E135" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="F135">
-        <v>8223</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="136" spans="5:6">
       <c r="E136" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F136">
-        <v>8181</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="137" spans="5:6">
       <c r="E137" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="F137">
-        <v>8007</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="138" spans="5:6">
       <c r="E138" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F138">
-        <v>7944</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="139" spans="5:6">
       <c r="E139" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F139">
-        <v>7772</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="140" spans="5:6">
       <c r="E140" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F140">
-        <v>7600</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="141" spans="5:6">
       <c r="E141" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F141">
-        <v>7384</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="142" spans="5:6">
       <c r="E142" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F142">
-        <v>7270</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="143" spans="5:6">
       <c r="E143" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="F143">
-        <v>7058</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="144" spans="5:6">
       <c r="E144" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F144">
-        <v>7055</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="145" spans="5:6">
       <c r="E145" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F145">
-        <v>7017</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="146" spans="5:6">
       <c r="E146" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F146">
-        <v>6785</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="147" spans="5:6">
       <c r="E147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F147">
-        <v>6766</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="148" spans="5:6">
       <c r="E148" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F148">
-        <v>6763</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="149" spans="5:6">
       <c r="E149" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F149">
-        <v>6757</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="150" spans="5:6">
       <c r="E150" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="F150">
-        <v>6642</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="151" spans="5:6">
       <c r="E151" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="F151">
-        <v>6417</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="152" spans="5:6">
       <c r="E152" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="F152">
-        <v>6342</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="153" spans="5:6">
       <c r="E153" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F153">
-        <v>6282</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="154" spans="5:6">
       <c r="E154" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="F154">
-        <v>6180</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="155" spans="5:6">
       <c r="E155" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F155">
-        <v>6172</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="156" spans="5:6">
       <c r="E156" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F156">
-        <v>6035</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="157" spans="5:6">
       <c r="E157" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F157">
-        <v>6007</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="158" spans="5:6">
       <c r="E158" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F158">
-        <v>5887</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="159" spans="5:6">
       <c r="E159" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F159">
-        <v>5663</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="160" spans="5:6">
       <c r="E160" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F160">
-        <v>5556</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="161" spans="5:6">
       <c r="E161" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F161">
-        <v>5421</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="162" spans="5:6">
       <c r="E162" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F162">
-        <v>5358</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="163" spans="5:6">
       <c r="E163" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="F163">
-        <v>5308</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="164" spans="5:6">
       <c r="E164" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F164">
-        <v>5100</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="165" spans="5:6">
       <c r="E165" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F165">
-        <v>5048</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="166" spans="5:6">
       <c r="E166" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F166">
-        <v>5016</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="167" spans="5:6">
       <c r="E167" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F167">
-        <v>4836</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="168" spans="5:6">
       <c r="E168" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="F168">
-        <v>4814</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="169" spans="5:6">
       <c r="E169" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="F169">
-        <v>4481</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="170" spans="5:6">
       <c r="E170" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F170">
-        <v>4475</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="171" spans="5:6">
       <c r="E171" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F171">
-        <v>4436</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="172" spans="5:6">
       <c r="E172" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="F172">
-        <v>4336</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="173" spans="5:6">
       <c r="E173" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F173">
-        <v>4278</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="174" spans="5:6">
       <c r="E174" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F174">
-        <v>4146</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="175" spans="5:6">
       <c r="E175" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F175">
-        <v>4071</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="176" spans="5:6">
       <c r="E176" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F176">
-        <v>4014</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="177" spans="5:6">
       <c r="E177" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F177">
-        <v>3905</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="178" spans="5:6">
       <c r="E178" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F178">
-        <v>3898</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="179" spans="5:6">
       <c r="E179" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="F179">
-        <v>3853</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="180" spans="5:6">
       <c r="E180" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="F180">
-        <v>3802</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="181" spans="5:6">
       <c r="E181" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="F181">
-        <v>3800</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="182" spans="5:6">
       <c r="E182" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F182">
-        <v>3664</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="183" spans="5:6">
       <c r="E183" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="F183">
-        <v>3517</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="184" spans="5:6">
       <c r="E184" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F184">
-        <v>3497</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="185" spans="5:6">
       <c r="E185" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="F185">
-        <v>3278</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="186" spans="5:6">
       <c r="E186" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="F186">
-        <v>3204</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="187" spans="5:6">
       <c r="E187" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="F187">
-        <v>3188</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="188" spans="5:6">
@@ -54045,463 +54847,463 @@
         <v>203</v>
       </c>
       <c r="F188">
-        <v>2741</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="189" spans="5:6">
       <c r="E189" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F189">
-        <v>2695</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="190" spans="5:6">
       <c r="E190" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F190">
-        <v>2646</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="191" spans="5:6">
       <c r="E191" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="F191">
-        <v>2601</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="192" spans="5:6">
       <c r="E192" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F192">
-        <v>2589</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="193" spans="5:6">
       <c r="E193" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="F193">
-        <v>2584</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="194" spans="5:6">
       <c r="E194" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F194">
-        <v>2569</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="195" spans="5:6">
       <c r="E195" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F195">
-        <v>2563</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="196" spans="5:6">
       <c r="E196" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F196">
-        <v>2475</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="197" spans="5:6">
       <c r="E197" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F197">
-        <v>2469</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="198" spans="5:6">
       <c r="E198" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F198">
-        <v>2409</v>
+        <v>990</v>
       </c>
     </row>
     <row r="199" spans="5:6">
       <c r="E199" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F199">
-        <v>2306</v>
+        <v>975</v>
       </c>
     </row>
     <row r="200" spans="5:6">
       <c r="E200" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="F200">
-        <v>2280</v>
+        <v>974</v>
       </c>
     </row>
     <row r="201" spans="5:6">
       <c r="E201" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="F201">
-        <v>2269</v>
+        <v>970</v>
       </c>
     </row>
     <row r="202" spans="5:6">
       <c r="E202" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="F202">
-        <v>2173</v>
+        <v>900</v>
       </c>
     </row>
     <row r="203" spans="5:6">
       <c r="E203" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="F203">
-        <v>1989</v>
+        <v>889</v>
       </c>
     </row>
     <row r="204" spans="5:6">
       <c r="E204" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="F204">
-        <v>1896</v>
+        <v>861</v>
       </c>
     </row>
     <row r="205" spans="5:6">
       <c r="E205" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F205">
-        <v>1851</v>
+        <v>805</v>
       </c>
     </row>
     <row r="206" spans="5:6">
       <c r="E206" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F206">
-        <v>1736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="207" spans="5:6">
       <c r="E207" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F207">
-        <v>1719</v>
+        <v>695</v>
       </c>
     </row>
     <row r="208" spans="5:6">
       <c r="E208" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F208">
-        <v>1699</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" spans="5:6">
       <c r="E209" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="F209">
-        <v>1658</v>
+        <v>613</v>
       </c>
     </row>
     <row r="210" spans="5:6">
       <c r="E210" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="F210">
-        <v>1631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="211" spans="5:6">
       <c r="E211" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="F211">
-        <v>1549</v>
+        <v>587</v>
       </c>
     </row>
     <row r="212" spans="5:6">
       <c r="E212" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="F212">
-        <v>1475</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="5:6">
       <c r="E213" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F213">
-        <v>1423</v>
+        <v>544</v>
       </c>
     </row>
     <row r="214" spans="5:6">
       <c r="E214" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="F214">
-        <v>1390</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" spans="5:6">
       <c r="E215" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F215">
-        <v>1377</v>
+        <v>534</v>
       </c>
     </row>
     <row r="216" spans="5:6">
       <c r="E216" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F216">
-        <v>1348</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="5:6">
       <c r="E217" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="F217">
-        <v>1277</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="5:6">
       <c r="E218" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="F218">
-        <v>1211</v>
+        <v>415</v>
       </c>
     </row>
     <row r="219" spans="5:6">
       <c r="E219" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="F219">
-        <v>1210</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="5:6">
       <c r="E220" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F220">
-        <v>1208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="5:6">
       <c r="E221" t="s">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="F221">
-        <v>1105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="5:6">
       <c r="E222" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F222">
-        <v>1072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="5:6">
       <c r="E223" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F223">
-        <v>990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="5:6">
       <c r="E224" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="F224">
-        <v>975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="5:6">
       <c r="E225" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="F225">
-        <v>974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="5:6">
       <c r="E226" t="s">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="F226">
-        <v>970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="5:6">
       <c r="E227" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F227">
-        <v>955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="5:6">
       <c r="E228" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="F228">
-        <v>925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="5:6">
       <c r="E229" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="F229">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="5:6">
       <c r="E230" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="F230">
-        <v>889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="5:6">
       <c r="E231" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F231">
-        <v>861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="5:6">
       <c r="E232" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="F232">
-        <v>805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="5:6">
       <c r="E233" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="F233">
-        <v>715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="5:6">
       <c r="E234" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="F234">
-        <v>702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="5:6">
       <c r="E235" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="F235">
-        <v>695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="5:6">
       <c r="E236" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="F236">
-        <v>654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="5:6">
       <c r="E237" t="s">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="F237">
-        <v>635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="5:6">
       <c r="E238" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="F238">
-        <v>613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="5:6">
       <c r="E239" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="F239">
-        <v>611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="5:6">
       <c r="E240" t="s">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="F240">
-        <v>587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="5:6">
       <c r="E241" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="F241">
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="5:6">
       <c r="E242" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="F242">
-        <v>536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="5:6">
       <c r="E243" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="F243">
-        <v>534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="5:6">
       <c r="E244" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="F244">
-        <v>505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="5:6">
       <c r="E245" t="s">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="F245">
-        <v>311</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -54524,7 +55326,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -54605,10 +55407,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -54617,17 +55419,25 @@
     <col min="2" max="2" width="12.4285714285714"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -54696,15 +55506,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B7"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.4285714285714"/>
+    <col min="1" max="1" width="12.1428571428571"/>
     <col min="2" max="2" width="17.8571428571429"/>
   </cols>
   <sheetData>
@@ -54713,7 +55523,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -54726,26 +55536,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="B5">
-        <v>3962109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>4220814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>11606337</v>
+        <v>3423414</v>
       </c>
     </row>
   </sheetData>
@@ -54758,7 +55552,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -54775,7 +55569,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -54788,1322 +55582,1322 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>234317</v>
+        <v>132372</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>169260</v>
+        <v>114581</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>133745</v>
+        <v>101103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>114581</v>
+        <v>98767</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>114090</v>
+        <v>91100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>101103</v>
+        <v>83891</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>98767</v>
+        <v>80034</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>91100</v>
+        <v>75180</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>87158</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>86569</v>
+        <v>64964</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>83891</v>
+        <v>61098</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>80034</v>
+        <v>56802</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>75180</v>
+        <v>55535</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>75153</v>
+        <v>55395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18">
-        <v>69010</v>
+        <v>54351</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>68827</v>
+        <v>53377</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B20">
-        <v>66916</v>
+        <v>52949</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>61098</v>
+        <v>52722</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>61029</v>
+        <v>52429</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B23">
-        <v>58185</v>
+        <v>51383</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>56802</v>
+        <v>50571</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>55535</v>
+        <v>49451</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>54351</v>
+        <v>48826</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>53377</v>
+        <v>46371</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>52949</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>52722</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B30">
-        <v>52429</v>
+        <v>39940</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B31">
-        <v>51383</v>
+        <v>38567</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B32">
-        <v>50571</v>
+        <v>36989</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B33">
-        <v>49451</v>
+        <v>36812</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B34">
-        <v>49444</v>
+        <v>35458</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>48826</v>
+        <v>35385</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>46542</v>
+        <v>35103</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B37">
-        <v>44408</v>
+        <v>33907</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>44387</v>
+        <v>33807</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>39940</v>
+        <v>33646</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B40">
-        <v>39650</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B41">
-        <v>39552</v>
+        <v>33094</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B42">
-        <v>38567</v>
+        <v>32214</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>37160</v>
+        <v>31368</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>36989</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B45">
-        <v>36812</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>35905</v>
+        <v>29922</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B47">
-        <v>35458</v>
+        <v>28385</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B48">
-        <v>35103</v>
+        <v>28094</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B49">
-        <v>34998</v>
+        <v>26012</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B50">
-        <v>33907</v>
+        <v>25136</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B51">
-        <v>33807</v>
+        <v>23457</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B52">
-        <v>33646</v>
+        <v>22595</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B53">
-        <v>33094</v>
+        <v>21960</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B54">
-        <v>32214</v>
+        <v>21677</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>31368</v>
+        <v>21085</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B56">
-        <v>31223</v>
+        <v>20539</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B57">
-        <v>31209</v>
+        <v>20537</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B58">
-        <v>29922</v>
+        <v>19912</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B59">
-        <v>28988</v>
+        <v>19858</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B60">
-        <v>28385</v>
+        <v>19536</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B61">
-        <v>28094</v>
+        <v>19385</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B62">
-        <v>26012</v>
+        <v>18530</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B63">
-        <v>25136</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B64">
-        <v>23707</v>
+        <v>17856</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B65">
-        <v>23457</v>
+        <v>17827</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B66">
-        <v>22595</v>
+        <v>17626</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B67">
-        <v>21960</v>
+        <v>17350</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B68">
-        <v>21921</v>
+        <v>14893</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B69">
-        <v>21677</v>
+        <v>14804</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B70">
-        <v>21085</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B71">
-        <v>20909</v>
+        <v>14403</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B72">
-        <v>20539</v>
+        <v>13721</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B73">
-        <v>20537</v>
+        <v>13709</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B74">
-        <v>19915</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B75">
-        <v>19912</v>
+        <v>13382</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B76">
-        <v>19858</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B77">
-        <v>19536</v>
+        <v>12673</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B78">
-        <v>19385</v>
+        <v>12306</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B79">
-        <v>19264</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B80">
-        <v>19216</v>
+        <v>11931</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B81">
-        <v>18530</v>
+        <v>11825</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B82">
-        <v>18244</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B83">
-        <v>18083</v>
+        <v>11308</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B84">
-        <v>17827</v>
+        <v>11289</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B85">
-        <v>17718</v>
+        <v>11137</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B86">
-        <v>17626</v>
+        <v>10849</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B87">
-        <v>17350</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B88">
-        <v>16199</v>
+        <v>9673</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="B89">
-        <v>15976</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B90">
-        <v>15743</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B91">
-        <v>14893</v>
+        <v>9144</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B92">
-        <v>14804</v>
+        <v>8223</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B93">
-        <v>14733</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B94">
-        <v>14403</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B95">
-        <v>13721</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B96">
-        <v>13709</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B97">
-        <v>13440</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B98">
-        <v>13382</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B99">
-        <v>13065</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B100">
-        <v>12673</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B101">
-        <v>12390</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B102">
-        <v>12306</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B103">
-        <v>12264</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B104">
-        <v>11931</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B105">
-        <v>11548</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B106">
-        <v>11308</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B107">
-        <v>11289</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B108">
-        <v>11255</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B109">
-        <v>11137</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B110">
-        <v>10849</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B111">
-        <v>9777</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B112">
-        <v>9673</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B113">
-        <v>9359</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B114">
-        <v>9294</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B115">
-        <v>9144</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B116">
-        <v>8223</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B117">
-        <v>8181</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B118">
-        <v>8007</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B119">
-        <v>7944</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B120">
-        <v>7772</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B121">
-        <v>7600</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B122">
-        <v>7384</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B123">
-        <v>7270</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B124">
-        <v>7058</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B125">
-        <v>7055</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B126">
-        <v>7017</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B127">
-        <v>6785</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128">
-        <v>6766</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B129">
-        <v>6763</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B130">
-        <v>6757</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B131">
-        <v>6642</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B132">
-        <v>6417</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B133">
-        <v>6342</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B134">
-        <v>6282</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B135">
-        <v>6180</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B136">
-        <v>6172</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B137">
-        <v>6035</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B138">
-        <v>6007</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B139">
-        <v>5887</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B140">
-        <v>5663</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B141">
-        <v>5556</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B142">
-        <v>5421</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B143">
-        <v>5358</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B144">
-        <v>5308</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B145">
-        <v>5100</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B146">
-        <v>5048</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B147">
-        <v>5016</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B148">
-        <v>4836</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B149">
-        <v>4814</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B150">
-        <v>4481</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B151">
-        <v>4475</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B152">
-        <v>4436</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B153">
-        <v>4336</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B154">
-        <v>4278</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B155">
-        <v>4146</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B156">
-        <v>4071</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B157">
-        <v>4014</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B158">
-        <v>3905</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="B159">
-        <v>3898</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B160">
-        <v>3853</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B161">
-        <v>3802</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B162">
-        <v>3800</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B163">
-        <v>3664</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B164">
-        <v>3517</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B165">
-        <v>3497</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B166">
-        <v>3278</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B167">
-        <v>3204</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B168">
-        <v>3188</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -56111,463 +56905,255 @@
         <v>203</v>
       </c>
       <c r="B169">
-        <v>2741</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B170">
-        <v>2695</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B171">
-        <v>2646</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B172">
-        <v>2601</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B173">
-        <v>2589</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B174">
-        <v>2584</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B175">
-        <v>2569</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B176">
-        <v>2563</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B177">
-        <v>2475</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B178">
-        <v>2469</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B179">
-        <v>2409</v>
+        <v>990</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B180">
-        <v>2306</v>
+        <v>975</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="B181">
-        <v>2280</v>
+        <v>974</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B182">
-        <v>2269</v>
+        <v>970</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B183">
-        <v>2173</v>
+        <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B184">
-        <v>1989</v>
+        <v>889</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="B185">
-        <v>1896</v>
+        <v>861</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B186">
-        <v>1851</v>
+        <v>805</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B187">
-        <v>1736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B188">
-        <v>1719</v>
+        <v>695</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B189">
-        <v>1699</v>
+        <v>667</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="B190">
-        <v>1658</v>
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B191">
-        <v>1631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B192">
-        <v>1549</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B193">
-        <v>1475</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B194">
-        <v>1423</v>
+        <v>544</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B195">
-        <v>1390</v>
+        <v>536</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B196">
-        <v>1377</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B197">
-        <v>1348</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B198">
-        <v>1277</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B199">
-        <v>1211</v>
+        <v>415</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B200">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>211</v>
-      </c>
-      <c r="B201">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>213</v>
-      </c>
-      <c r="B202">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>234</v>
-      </c>
-      <c r="B203">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>214</v>
-      </c>
-      <c r="B204">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>215</v>
-      </c>
-      <c r="B205">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>216</v>
-      </c>
-      <c r="B206">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>217</v>
-      </c>
-      <c r="B207">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>225</v>
-      </c>
-      <c r="B208">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>218</v>
-      </c>
-      <c r="B209">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>219</v>
-      </c>
-      <c r="B210">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>220</v>
-      </c>
-      <c r="B211">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>221</v>
-      </c>
-      <c r="B212">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>222</v>
-      </c>
-      <c r="B213">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>223</v>
-      </c>
-      <c r="B214">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>229</v>
-      </c>
-      <c r="B215">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>224</v>
-      </c>
-      <c r="B216">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>226</v>
-      </c>
-      <c r="B217">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>233</v>
-      </c>
-      <c r="B218">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>227</v>
-      </c>
-      <c r="B219">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>236</v>
-      </c>
-      <c r="B220">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>228</v>
-      </c>
-      <c r="B221">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>230</v>
-      </c>
-      <c r="B222">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>231</v>
-      </c>
-      <c r="B223">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>232</v>
-      </c>
-      <c r="B224">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>235</v>
-      </c>
-      <c r="B225">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>237</v>
-      </c>
-      <c r="B226">
-        <v>311</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -56597,7 +57183,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -56605,7 +57191,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -56613,87 +57199,87 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>468633</v>
+        <v>132372</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>399707</v>
+        <v>114581</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>327015</v>
+        <v>101103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>315862</v>
+        <v>98767</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>284284</v>
+        <v>91100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>279499</v>
+        <v>83891</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>230716</v>
+        <v>80034</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>226743</v>
+        <v>75180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>219468</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>217528</v>
+        <v>64964</v>
       </c>
     </row>
   </sheetData>
@@ -56723,7 +57309,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -56731,7 +57317,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -56739,87 +57325,87 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B5">
-        <v>654</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6">
-        <v>782</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B7">
-        <v>1211</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B8">
-        <v>1353</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9">
-        <v>1400</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B10">
-        <v>1438</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B11">
-        <v>1456</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B12">
-        <v>1458</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B13">
-        <v>1537</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B14">
-        <v>1571</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -56827,7 +57413,7 @@
         <v>242</v>
       </c>
       <c r="B15">
-        <v>12860</v>
+        <v>5012</v>
       </c>
     </row>
   </sheetData>
@@ -56840,13 +57426,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B15"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.1428571428571"/>
     <col min="2" max="2" width="17.8571428571429"/>
@@ -56857,7 +57443,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -56865,95 +57451,39 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>105988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="B5">
-        <v>75153</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="B6">
-        <v>1267</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="B7">
-        <v>41862</v>
+        <v>3414194</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2015</v>
+      <c r="A8" t="s">
+        <v>242</v>
       </c>
       <c r="B8">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9">
-        <v>56191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10">
-        <v>126718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11">
-        <v>657931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2021</v>
-      </c>
-      <c r="B12">
-        <v>7120541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13">
-        <v>5020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14">
-        <v>3414194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15">
-        <v>11606337</v>
+        <v>3423414</v>
       </c>
     </row>
   </sheetData>
